--- a/Glosario.xlsx
+++ b/Glosario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-GLOBAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D44B161-AE1A-43A8-B683-EA61CE0CEFB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091B205D-A0FB-430C-8392-F8A0373C6BA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6D80891-FDC1-427B-B162-D010D04F8C51}"/>
   </bookViews>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967A1E7E-1650-4CEB-9B35-82C014189C3A}">
   <dimension ref="B3:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Glosario.xlsx
+++ b/Glosario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-GLOBAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091B205D-A0FB-430C-8392-F8A0373C6BA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9042693E-C3EF-4713-9FB5-3FCA43FD4DB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6D80891-FDC1-427B-B162-D010D04F8C51}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Organismos internacionales</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Dimensiones</t>
   </si>
   <si>
-    <t>Tipo de financiamiento</t>
-  </si>
-  <si>
     <t>Dimensión social</t>
   </si>
   <si>
@@ -136,6 +133,35 @@
   </si>
   <si>
     <t xml:space="preserve">La economía es el motor del desarrollo y del eventual bienestar social si es abordada de manera integral y holística. Este desafío implica identificar y monitorear no sólo los beneficios económicos de las acciones emprendidas, sino también los potenciales impactos adversos en el resto de las dimensiones. Para este producto, la dimensión económica, categoriza los programas y proyectos fiscales, tributarios, financieros, productivos y de reducción de la pobreza. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es el tipo de financimiento otorgado por los organismos internacionales a los Estados a fin de apoyar políticas, programas y proyectos con impacto social, ambiental y económico. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es un instrumento utilizado para proporcionar financiamiento para un proyecto específico. Se utiliza para construir la infraestructura física y social y la capacidad institucional. </t>
+  </si>
+  <si>
+    <t>Investment Project Financing | World Bank Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provee financiamiento a una serie de proyectos independientes relacionados a uno o varios sectores de tal forma que los prestamistas cuenten con recursos de manera oportuna y se asegure la continuidad de los programas de inversión </t>
+  </si>
+  <si>
+    <t>Financiamiento al sector público: Instrumentos de préstamo | Publications (iadb.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cubre los gastos para restablecer los servicios básicos de la población después de que ocurre un tipo de desastre específico, con ubicación e intensi - dad acordados contractualmente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este tipo de financiamiento es una herramienta poderosa para fomentar el desarrollo, ya que puede destrabar valor significativo, porque les permite a las empresas que no cuentan con recursos disponibles crecer y ser más eficientes.
+A través de una inversión de capital, un banco multilateral puede aportar experiencia técnica y de mercado, mejorar la gestión financiera, fortalecer los estándares ambientales, sociales y de gobernanza e incorporar nuevos inversores.
+</t>
+  </si>
+  <si>
+    <t>Inversiones de capital | IDB Invest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son aportes de fuentes de financiamiento internacional en apoyo para políticas públicas de países </t>
   </si>
 </sst>
 </file>
@@ -209,9 +235,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -223,6 +248,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -539,191 +573,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967A1E7E-1650-4CEB-9B35-82C014189C3A}">
-  <dimension ref="B3:D20"/>
+  <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="50.140625" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
+    </row>
+    <row r="18" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="19" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="https://www.academia.edu/15404252/Glosario_de_la_Cooperaci%C3%B3n_Internacional" xr:uid="{1FE5D49A-53C5-4BBA-A2AA-31EAFD66E54E}"/>
-    <hyperlink ref="D13" r:id="rId2" display="https://www.gub.uy/agencia-uruguaya-cooperacion-internacional/sites/agencia-uruguaya-cooperacion-internacional/files/documentos/publicaciones/Glosario-web_ORIGINAL_2da edicion.pdf" xr:uid="{6AC56894-0B81-46F8-BD73-310E9056456F}"/>
-    <hyperlink ref="D17" r:id="rId3" display="https://www.worldbank.org/en/projects-operations/products-and-services" xr:uid="{0C9BBD0C-7044-4D1D-8194-8B0680FFC209}"/>
-    <hyperlink ref="D16" r:id="rId4" display="https://www.worldbank.org/en/projects-operations/products-and-services" xr:uid="{713995F7-F556-464F-A943-B8C498644C0F}"/>
-    <hyperlink ref="D19" r:id="rId5" display="https://www.worldbank.org/en/projects-operations/products-and-services" xr:uid="{8459C000-4FC5-4B58-A27A-1C80A4A1D671}"/>
+    <hyperlink ref="D12" r:id="rId2" display="https://www.gub.uy/agencia-uruguaya-cooperacion-internacional/sites/agencia-uruguaya-cooperacion-internacional/files/documentos/publicaciones/Glosario-web_ORIGINAL_2da edicion.pdf" xr:uid="{6AC56894-0B81-46F8-BD73-310E9056456F}"/>
+    <hyperlink ref="D16" r:id="rId3" display="https://www.worldbank.org/en/projects-operations/products-and-services" xr:uid="{0C9BBD0C-7044-4D1D-8194-8B0680FFC209}"/>
+    <hyperlink ref="D15" r:id="rId4" display="https://www.worldbank.org/en/projects-operations/products-and-services" xr:uid="{713995F7-F556-464F-A943-B8C498644C0F}"/>
+    <hyperlink ref="D18" r:id="rId5" display="https://www.worldbank.org/en/projects-operations/products-and-services" xr:uid="{8459C000-4FC5-4B58-A27A-1C80A4A1D671}"/>
+    <hyperlink ref="D11" r:id="rId6" location=":~:text=Investment%20Project%20Financing%20World%20Bank%20instrument%20used%20to,the%20physical%20and%20social%20infrastructure%20and%20institutional%20capacity." display="https://olc.worldbank.org/taxonomy/term/32915 - :~:text=Investment%20Project%20Financing%20World%20Bank%20instrument%20used%20to,the%20physical%20and%20social%20infrastructure%20and%20institutional%20capacity." xr:uid="{D5B044FF-942A-4D2A-A1AC-C3A888D693D5}"/>
+    <hyperlink ref="D14" r:id="rId7" display="https://publications.iadb.org/publications/spanish/document/Financiamiento-al-sector-p%C3%BAblico-Instrumentos-de-pr%C3%A9stamo.pdf" xr:uid="{0A9B5D77-85F1-48DC-96E2-784C80BC91DE}"/>
+    <hyperlink ref="D19" r:id="rId8" display="https://publications.iadb.org/publications/spanish/document/Financiamiento-al-sector-p%C3%BAblico-Instrumentos-de-pr%C3%A9stamo.pdf" xr:uid="{27E10643-131B-4A55-93E4-F7E0C8F74255}"/>
+    <hyperlink ref="D13" r:id="rId9" display="https://www.idbinvest.org/es/soluciones/equity" xr:uid="{D9196165-2928-42C8-AC82-B2CDA6FA2C3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Glosario.xlsx
+++ b/Glosario.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvcma\Dropbox\Diseño DATA's\DATA-GLOBAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9042693E-C3EF-4713-9FB5-3FCA43FD4DB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABAC218-033A-44BC-814D-B17B04BFFC9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6D80891-FDC1-427B-B162-D010D04F8C51}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Glosario " sheetId="1" r:id="rId1"/>
+    <sheet name="Organismo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t>Organismos internacionales</t>
   </si>
@@ -78,9 +79,6 @@
     <t>Subsidios</t>
   </si>
   <si>
-    <t xml:space="preserve">Subvensiones </t>
-  </si>
-  <si>
     <t>Préstamo de recuperación por emergencia</t>
   </si>
   <si>
@@ -118,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">Son cuatro grandes categorías temáticas que facilitan la clasificación de los productos dentro de Data Intelligence. Las dimensiones están constituídas por ambiental, social, económico e institucional. </t>
-  </si>
-  <si>
-    <t>Fuente: Elaboración propia de Data Intelligence</t>
   </si>
   <si>
     <t xml:space="preserve">Múltiples son los factores vinculados a la vida en sociedad, a sus interrelaciones y sus necesidades. En DATA INTELLIGENCE conjugamos datos de aquellos aspectos que determinan y caracterizan la calidad de vida de los habitantes en un territorio para entregar información de manera comprensible, inmediata y transparente.Propiamente para este producto, la dimensión social está constituida a programas y proyectos vinculados con las temáticas de género, sociedad civil, pueblos indígenas, jóvenes, salud, alimentación y educación. </t>
@@ -162,6 +157,150 @@
   </si>
   <si>
     <t xml:space="preserve">Son aportes de fuentes de financiamiento internacional en apoyo para políticas públicas de países </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subvenciones </t>
+  </si>
+  <si>
+    <t>BID</t>
+  </si>
+  <si>
+    <t>IADB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene como propósito mejorar la calidad de vida en América Latina y el Caribe. Ayuda en mejorar la salud, la educación y la infraestructura a través del apoyo financiero y técnico a los países que trabajan para reducir la pobreza y la desigualdad. Su objetivo es alcanzar el desarrollo de una manera sostenible y respetuosa con el clima. </t>
+  </si>
+  <si>
+    <t>https://www.iadb.org/es</t>
+  </si>
+  <si>
+    <t>Multilateral</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Washington, DC, EEUU</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>Asociación mundial, constituida por 5 instituciones dedicadas a reducir la pobreza y el desarrollo sostenible. Es una fuente financiera para los países en desarrollo</t>
+  </si>
+  <si>
+    <t>https://www.bancomundial.org/es/who-we-are</t>
+  </si>
+  <si>
+    <t>Mundial</t>
+  </si>
+  <si>
+    <t>FVC</t>
+  </si>
+  <si>
+    <t>GCF</t>
+  </si>
+  <si>
+    <t>El Fondo Verde para el Clima  es el fondo dedicado a apoyar a los países en desarrollo a reducir sus emisiones de gases de efecto invernadero y mejorar su capacidad para responder al cambio climático. Fue creado por la Convención Marco de las Naciones Unidas sobre el Cambio Climático (CMNUCC) en 2010. Este Fondo tiene un papel crucial en el servicio del Acuerdo de París, apoyando el objetivo de mantener el aumento de la temperatura global promedio muy por debajo de 2 grados C. Lo hace canalizando financiación climática a países en desarrollo, que se han unido a otras naciones para comprometerse con la acción climática.</t>
+  </si>
+  <si>
+    <t>Green Climate Fund</t>
+  </si>
+  <si>
+    <t>Yeonsu-gu, República de Corea</t>
+  </si>
+  <si>
+    <t>PNUD</t>
+  </si>
+  <si>
+    <t>UNDP</t>
+  </si>
+  <si>
+    <t>Agencia de las Naciones Unidas que trabaja para reducir la pobreza y reducir las desigualdades y la exclusión. Apoya a los países a desarrollar políticas, alianzas, habilidades de liderazgo, capacidades institucionales y resiliencia con el fin de mantener los avances del desarrollo. Además contribuye a que los países alcancen los ODS</t>
+  </si>
+  <si>
+    <t>https://www.undp.org/content/undp/es/home.html</t>
+  </si>
+  <si>
+    <t>New York, EEUU</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Banco Interaméricano de Desarrollo</t>
+  </si>
+  <si>
+    <t>Banco Mundial</t>
+  </si>
+  <si>
+    <t>Fondo Verde para el Clima</t>
+  </si>
+  <si>
+    <t>Programa de las Naciones Unidas para el Desarrollo</t>
+  </si>
+  <si>
+    <t>Siglas en Inglés</t>
+  </si>
+  <si>
+    <t>Siglas en español</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Link de la web</t>
+  </si>
+  <si>
+    <t>Alcance</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sede </t>
+  </si>
+  <si>
+    <t>Corporación Andina de Fomento</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>GEF</t>
+  </si>
+  <si>
+    <t>FMAM</t>
+  </si>
+  <si>
+    <t>Fondo para el Medio Ambiente Mundial</t>
+  </si>
+  <si>
+    <t>Institución financiera comprometida a mejorar la calidad de vida en América Latina. Promueve un modelo de desarrollo sostenible mediante crédito, recursos no reembolsables y apoyo en la estructuración técnica y financiera de proyectos de los sectores público y privado de América Latina. El aporte sobre el desarrollo de la región se refleja en los resultados esperados de operaciones de crédito e inversiones patrimoniales.</t>
+  </si>
+  <si>
+    <t>CAF -banco de desarrollo de América Latina- | CAF</t>
+  </si>
+  <si>
+    <t>Caracas, Venezuela</t>
+  </si>
+  <si>
+    <t>https://www.thegef.org/</t>
+  </si>
+  <si>
+    <t>Se estableció en vísperas de la Cumbre de la Tierra de Río de 1992 para ayudar a abordar los problemas ambientales más urgentes de nuestro planeta. Desde entonces, el FMAM ha proporcionado más de $ 21,1 mil millones en donaciones y movilizado $ 114 mil millones adicionales en cofinanciamiento para más de 5.000 proyectos en 170 países. A través de su Programa de Pequeñas Donaciones, el FMAM ha brindado apoyo a más de 25.000 iniciativas comunitarias y de la sociedad civil en 133 países.</t>
+  </si>
+  <si>
+    <t>Fuente Elaboración propia de Data Intelligence</t>
+  </si>
+  <si>
+    <t>Categorías</t>
+  </si>
+  <si>
+    <t>Diversidad de tipos de políticas, programas y proyectos que se enmarcan dentro de cada dimensión. El Objetivo de las categorías es facilitar la visualización de cada dimensión.</t>
   </si>
 </sst>
 </file>
@@ -207,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -230,12 +369,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -257,13 +451,181 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -274,6 +636,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F3CAA63A-7B0F-49BF-8A8A-554E2169D1B0}" name="Tabla2" displayName="Tabla2" ref="B3:D20" totalsRowShown="0">
+  <autoFilter ref="B3:D20" xr:uid="{4C6D0735-20FB-48A9-89BE-5249161CD73B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0C475F8D-91A4-47E0-AA26-58DC5AE6EB13}" name="Conceptos" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2ACADF08-4067-4505-95AC-1C150FA45719}" name="Definiciones" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B2FFD396-B6D2-465F-B83B-D936A7C40E5C}" name="Fuente" dataDxfId="0" dataCellStyle="Hipervínculo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64E109AB-04ED-4794-952D-A96A7553E867}" name="Tabla1" displayName="Tabla1" ref="B2:I8" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="B2:I8" xr:uid="{13D97641-4015-43A2-BC90-EB3EE6F5F7E4}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C232B074-22E4-4A15-B182-E3286916157B}" name="Nombre" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{95C03E97-293C-4739-B8A4-3F59E0C54C6B}" name="Siglas en español" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CFEA3C60-504A-4C42-AD38-40DBA3CC5F76}" name="Siglas en Inglés" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{234A52C7-2C5A-4AB1-8D31-4DABA3EA5EE9}" name="Descripción" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{2B4C01A9-6360-42F6-9433-76091C925004}" name="Link de la web" dataDxfId="6" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="6" xr3:uid="{D5D95B25-1C2C-481C-BFA3-1903FBB3C1F1}" name="Tipo" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{BD96185C-FCE7-4636-9B58-B79601DFEFBA}" name="Alcance" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{5E9AF685-A5C6-4A01-8EF8-F6E3B0A6DA54}" name="Sede " dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967A1E7E-1650-4CEB-9B35-82C014189C3A}">
-  <dimension ref="B3:D19"/>
+  <dimension ref="B3:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,13 +979,13 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="60" x14ac:dyDescent="0.25">
@@ -602,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
@@ -613,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="165" x14ac:dyDescent="0.25">
@@ -624,10 +1015,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="180" x14ac:dyDescent="0.25">
@@ -635,10 +1026,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="150" x14ac:dyDescent="0.25">
@@ -646,10 +1037,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="135" x14ac:dyDescent="0.25">
@@ -657,10 +1048,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="60" x14ac:dyDescent="0.25">
@@ -668,10 +1059,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="60" x14ac:dyDescent="0.25">
@@ -679,10 +1070,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="105" x14ac:dyDescent="0.25">
@@ -690,10 +1081,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="210" x14ac:dyDescent="0.25">
@@ -701,10 +1092,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="75" x14ac:dyDescent="0.25">
@@ -712,10 +1103,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="105" x14ac:dyDescent="0.25">
@@ -723,10 +1114,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="75" x14ac:dyDescent="0.25">
@@ -734,10 +1125,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
@@ -745,32 +1136,43 @@
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -787,5 +1189,221 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
+  <tableParts count="1">
+    <tablePart r:id="rId11"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC478548-4F84-4D18-B339-166F8CB42200}">
+  <dimension ref="B2:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="8" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="8"/>
+    <col min="9" max="9" width="18.5703125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" display="https://www.greenclimate.fund/" xr:uid="{D7B24D77-6943-4CDC-9288-CF5AECE1C332}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{39A57478-FFB8-4C11-96B4-FB713B808D26}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>